--- a/biology/Médecine/Salix_Pharmaceuticals/Salix_Pharmaceuticals.xlsx
+++ b/biology/Médecine/Salix_Pharmaceuticals/Salix_Pharmaceuticals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix Pharmaceuticals est une entreprise pharmaceutique américaine. 
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2013, Salix acquiert pour 2,6 milliards de dollars, Santarus[1], dont 800 millions directement en liquidés et 1,35 milliard par un prêt[2].
-En juillet 2014, Salix Pharmaceuticals va acquérir la filiale irlandaise de Cosmo Pharmaceuticals en échange de 20 % de ses actions dans le but de transférer son siège social en Irlande[3].
-En février 2015, Valeant Pharmaceuticals acquiert Salix pour 10,1 milliards dollars[4]. En mars 2015, Endo surenchérit avec une offre de 11 milliards de dollars[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2013, Salix acquiert pour 2,6 milliards de dollars, Santarus, dont 800 millions directement en liquidés et 1,35 milliard par un prêt.
+En juillet 2014, Salix Pharmaceuticals va acquérir la filiale irlandaise de Cosmo Pharmaceuticals en échange de 20 % de ses actions dans le but de transférer son siège social en Irlande.
+En février 2015, Valeant Pharmaceuticals acquiert Salix pour 10,1 milliards dollars. En mars 2015, Endo surenchérit avec une offre de 11 milliards de dollars.
 </t>
         </is>
       </c>
